--- a/output_data/charts/capacity-Delaware-1600000US3921434.xlsx
+++ b/output_data/charts/capacity-Delaware-1600000US3921434.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -516,10 +516,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12680</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1001000</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4620</c:v>
+                  <c:v>4.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -871,37 +871,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30500</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62300</c:v>
+                  <c:v>62.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50800</c:v>
+                  <c:v>50.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48300</c:v>
+                  <c:v>48.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80000</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>129831</c:v>
+                  <c:v>129.831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>169400</c:v>
+                  <c:v>169.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>607205</c:v>
+                  <c:v>607.205</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1430318</c:v>
+                  <c:v>1430.318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15000</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>4620</v>
+        <v>4.62</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>15000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>30500</v>
+        <v>30.5</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>62300</v>
+        <v>62.3</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>50800</v>
+        <v>50.8</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>48300</v>
+        <v>48.3</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>80000</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>129831</v>
+        <v>129.831</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>169400</v>
+        <v>169.4</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>12680</v>
+        <v>12.68</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>607205</v>
+        <v>607.205</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1001000</v>
+        <v>1001</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1430318</v>
+        <v>1430.318</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Delaware-1600000US3921434.xlsx
+++ b/output_data/charts/capacity-Delaware-1600000US3921434.xlsx
@@ -519,7 +519,7 @@
                   <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1001</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,10 +898,10 @@
                   <c:v>169.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>607.205</c:v>
+                  <c:v>612.105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1430.318</c:v>
+                  <c:v>1685.127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>607.205</v>
+        <v>612.105</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1430.318</v>
+        <v>1685.127</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
